--- a/analysis/pre_gemini_data/participant240_/task_med.xlsx
+++ b/analysis/pre_gemini_data/participant240_/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,222 +422,218 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cond bodies 1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>cond_statement1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>cond_statement2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exteranl2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>extrnal1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>loop body 1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loop statement 1</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>loop statement 2</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>method_declaration</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcall10</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>parameter 1</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>parameter 2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var name1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var13</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -713,60 +697,56 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>63</v>
+      </c>
+      <c r="I3" t="n">
+        <v>61</v>
+      </c>
+      <c r="J3" t="n">
+        <v>19</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>28</v>
-      </c>
-      <c r="H3" t="n">
-        <v>87</v>
-      </c>
-      <c r="I3" t="n">
-        <v>84</v>
-      </c>
-      <c r="J3" t="n">
-        <v>28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
         <v>14</v>
       </c>
       <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52</v>
+      </c>
+      <c r="R3" t="n">
+        <v>35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26</v>
+      </c>
+      <c r="T3" t="n">
+        <v>19</v>
+      </c>
+      <c r="U3" t="n">
+        <v>11</v>
+      </c>
+      <c r="V3" t="n">
         <v>7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>74</v>
-      </c>
-      <c r="R3" t="n">
-        <v>41</v>
-      </c>
-      <c r="S3" t="n">
-        <v>37</v>
-      </c>
-      <c r="T3" t="n">
-        <v>25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>15</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -775,41 +755,41 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL3" t="n">
         <v>2</v>
@@ -827,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -841,60 +821,56 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>278</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>32</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>558</v>
-      </c>
-      <c r="I4" t="n">
-        <v>356</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>452</v>
       </c>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="R4" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="S4" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="T4" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="U4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W4" t="n">
         <v>2</v>
@@ -903,41 +879,41 @@
         <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>3</v>
@@ -955,10 +931,10 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -969,60 +945,56 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>183.5</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>10810.97</v>
-      </c>
-      <c r="F5" t="n">
-        <v>500.51</v>
-      </c>
+        <v>8592.200000000001</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>17494.42</v>
+        <v>14708.15</v>
       </c>
       <c r="H5" t="n">
-        <v>181876.97</v>
+        <v>141686.78</v>
       </c>
       <c r="I5" t="n">
-        <v>114719.96</v>
+        <v>94165.53</v>
       </c>
       <c r="J5" t="n">
-        <v>18561.19</v>
+        <v>12354.86</v>
       </c>
       <c r="K5" t="n">
-        <v>17183.74</v>
+        <v>14314.16</v>
       </c>
       <c r="L5" t="n">
-        <v>3353.11</v>
+        <v>2652.6</v>
       </c>
       <c r="M5" t="n">
-        <v>884.15</v>
+        <v>517.09</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>125990.95</v>
       </c>
       <c r="P5" t="n">
-        <v>3036.34</v>
+        <v>2068.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>75963.08</v>
+        <v>60931.1</v>
       </c>
       <c r="R5" t="n">
-        <v>27021.54</v>
+        <v>24185.04</v>
       </c>
       <c r="S5" t="n">
-        <v>30281.14</v>
+        <v>25860.2</v>
       </c>
       <c r="T5" t="n">
-        <v>9993.559999999999</v>
+        <v>7540.93</v>
       </c>
       <c r="U5" t="n">
-        <v>12488.14</v>
+        <v>9835.32</v>
       </c>
       <c r="V5" t="n">
-        <v>4296.36</v>
+        <v>4146.25</v>
       </c>
       <c r="W5" t="n">
         <v>750.66</v>
@@ -1031,41 +1003,41 @@
         <v>100.12</v>
       </c>
       <c r="Y5" t="n">
-        <v>7123.84</v>
+        <v>6406.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>4938.63</v>
+        <v>3186.71</v>
       </c>
       <c r="AA5" t="n">
-        <v>5572.16</v>
+        <v>4471.23</v>
       </c>
       <c r="AB5" t="n">
-        <v>633.99</v>
+        <v>333.69</v>
       </c>
       <c r="AC5" t="n">
-        <v>1526.77</v>
+        <v>1376.61</v>
       </c>
       <c r="AD5" t="n">
         <v>1718.47</v>
       </c>
       <c r="AE5" t="n">
-        <v>113897.3</v>
+        <v>59772.62</v>
       </c>
       <c r="AF5" t="n">
-        <v>11321.74</v>
+        <v>10170.57</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>5088.96</v>
+        <v>4621.76</v>
       </c>
       <c r="AI5" t="n">
-        <v>2485.79</v>
+        <v>2285.63</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1751.8</v>
+        <v>1184.54</v>
       </c>
       <c r="AK5" t="n">
-        <v>7866.26</v>
+        <v>5080</v>
       </c>
       <c r="AL5" t="n">
         <v>2218.96</v>
@@ -1083,10 +1055,10 @@
         <v>1217.92</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8208.200000000001</v>
+        <v>6306.19</v>
       </c>
       <c r="AR5" t="n">
-        <v>9367.51</v>
+        <v>6881.77</v>
       </c>
     </row>
     <row r="6">
@@ -1097,124 +1069,120 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08</v>
-      </c>
+        <v>2.7</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>4.62</v>
       </c>
       <c r="H6" t="n">
-        <v>29.14</v>
+        <v>44.53</v>
       </c>
       <c r="I6" t="n">
-        <v>18.38</v>
+        <v>29.59</v>
       </c>
       <c r="J6" t="n">
-        <v>2.97</v>
+        <v>3.88</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="M6" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
         <v>41.19</v>
       </c>
       <c r="P6" t="n">
-        <v>0.49</v>
+        <v>0.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.17</v>
+        <v>19.15</v>
       </c>
       <c r="R6" t="n">
-        <v>4.33</v>
+        <v>7.6</v>
       </c>
       <c r="S6" t="n">
-        <v>4.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>2.37</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>3.09</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.14</v>
+        <v>2.01</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.89</v>
+        <v>1.41</v>
       </c>
       <c r="AB6" t="n">
         <v>0.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.24</v>
+        <v>0.43</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.28</v>
+        <v>0.54</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.25</v>
+        <v>18.78</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.81</v>
+        <v>3.2</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>0.82</v>
+        <v>1.45</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4</v>
+        <v>0.72</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.32</v>
+        <v>1.98</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="7">
@@ -1225,60 +1193,56 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>183.5</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>337.84</v>
-      </c>
-      <c r="F7" t="n">
-        <v>250.25</v>
-      </c>
+        <v>409.15</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>460.38</v>
+        <v>420.23</v>
       </c>
       <c r="H7" t="n">
-        <v>325.94</v>
+        <v>331.82</v>
       </c>
       <c r="I7" t="n">
-        <v>322.25</v>
+        <v>338.72</v>
       </c>
       <c r="J7" t="n">
-        <v>412.47</v>
+        <v>353</v>
       </c>
       <c r="K7" t="n">
-        <v>336.94</v>
+        <v>340.81</v>
       </c>
       <c r="L7" t="n">
-        <v>419.14</v>
+        <v>530.52</v>
       </c>
       <c r="M7" t="n">
-        <v>294.72</v>
+        <v>517.09</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
         <v>278.74</v>
       </c>
       <c r="P7" t="n">
-        <v>276.03</v>
+        <v>344.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>311.32</v>
+        <v>327.59</v>
       </c>
       <c r="R7" t="n">
-        <v>375.3</v>
+        <v>383.89</v>
       </c>
       <c r="S7" t="n">
-        <v>340.24</v>
+        <v>369.43</v>
       </c>
       <c r="T7" t="n">
-        <v>333.12</v>
+        <v>327.87</v>
       </c>
       <c r="U7" t="n">
-        <v>499.53</v>
+        <v>491.77</v>
       </c>
       <c r="V7" t="n">
-        <v>330.49</v>
+        <v>345.52</v>
       </c>
       <c r="W7" t="n">
         <v>375.33</v>
@@ -1287,41 +1251,41 @@
         <v>100.12</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.81</v>
+        <v>355.91</v>
       </c>
       <c r="Z7" t="n">
-        <v>448.97</v>
+        <v>531.12</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.63</v>
+        <v>558.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.5</v>
+        <v>166.85</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.46</v>
+        <v>275.32</v>
       </c>
       <c r="AD7" t="n">
         <v>343.69</v>
       </c>
       <c r="AE7" t="n">
-        <v>405.33</v>
+        <v>395.85</v>
       </c>
       <c r="AF7" t="n">
-        <v>419.32</v>
+        <v>423.77</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>363.5</v>
+        <v>385.15</v>
       </c>
       <c r="AI7" t="n">
-        <v>355.11</v>
+        <v>380.94</v>
       </c>
       <c r="AJ7" t="n">
-        <v>437.95</v>
+        <v>592.27</v>
       </c>
       <c r="AK7" t="n">
-        <v>524.42</v>
+        <v>423.33</v>
       </c>
       <c r="AL7" t="n">
         <v>739.65</v>
@@ -1339,10 +1303,10 @@
         <v>608.96</v>
       </c>
       <c r="AQ7" t="n">
-        <v>328.33</v>
+        <v>315.31</v>
       </c>
       <c r="AR7" t="n">
-        <v>312.25</v>
+        <v>312.81</v>
       </c>
     </row>
     <row r="8">
@@ -1353,15 +1317,11 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
-        <v>183.5</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>517.09</v>
       </c>
-      <c r="F8" t="n">
-        <v>333.7</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>216.85</v>
       </c>
@@ -1519,52 +1479,6 @@
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
